--- a/artfynd/A 4365-2022.xlsx
+++ b/artfynd/A 4365-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74543158</v>
+        <v>74543270</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>697755.9249891196</v>
+        <v>697930.1509788138</v>
       </c>
       <c r="R2" t="n">
-        <v>7093817.101766688</v>
+        <v>7094246.846446398</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74543270</v>
+        <v>74543269</v>
       </c>
       <c r="B3" t="n">
         <v>56411</v>
@@ -828,7 +833,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -837,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>697930.1509788138</v>
+        <v>697835.8462762419</v>
       </c>
       <c r="R3" t="n">
-        <v>7094246.846446398</v>
+        <v>7094075.864814039</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -909,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74543269</v>
+        <v>74543180</v>
       </c>
       <c r="B4" t="n">
-        <v>56411</v>
+        <v>89832</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,43 +926,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>697835.8462762419</v>
+        <v>697781.9198475594</v>
       </c>
       <c r="R4" t="n">
-        <v>7094075.864814039</v>
+        <v>7093922.878053115</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74543179</v>
+        <v>104166234</v>
       </c>
       <c r="B5" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,41 +1038,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kavelbroåsen, Ång</t>
+          <t>Kavelbroåsen, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>697747.0457652819</v>
+        <v>697810.9829933582</v>
       </c>
       <c r="R5" t="n">
-        <v>7093810.803446135</v>
+        <v>7094077.819310786</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1122,26 +1122,45 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74543180</v>
+        <v>104166233</v>
       </c>
       <c r="B6" t="n">
-        <v>89832</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,41 +1169,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kavelbroåsen, Ång</t>
+          <t>Kavelbroåsen, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>697781.9198475594</v>
+        <v>697804.9341971396</v>
       </c>
       <c r="R6" t="n">
-        <v>7093922.878053115</v>
+        <v>7094075.671339186</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1208,7 +1227,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1218,7 +1237,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1234,26 +1253,45 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74543267</v>
+        <v>74543158</v>
       </c>
       <c r="B7" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,39 +1304,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>697742.8174326988</v>
+        <v>697755.9249891196</v>
       </c>
       <c r="R7" t="n">
-        <v>7093800.82848464</v>
+        <v>7093817.101766688</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1367,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104166234</v>
+        <v>74543179</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,41 +1412,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kavelbroåsen, Balsjö, Bjurholm, Ång</t>
+          <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>697810.9829933582</v>
+        <v>697747.0457652819</v>
       </c>
       <c r="R8" t="n">
-        <v>7094077.819310786</v>
+        <v>7093810.803446135</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1437,7 +1470,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1447,7 +1480,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1463,45 +1496,26 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Anna Hallmén</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104166233</v>
+        <v>74543267</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1514,37 +1528,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kavelbroåsen, Balsjö, Bjurholm, Ång</t>
+          <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>697804.9341971396</v>
+        <v>697742.8174326988</v>
       </c>
       <c r="R9" t="n">
-        <v>7094075.671339186</v>
+        <v>7093800.82848464</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1568,7 +1587,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1578,7 +1597,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1594,38 +1613,19 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Anna Hallmén</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 4365-2022.xlsx
+++ b/artfynd/A 4365-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74543270</v>
+        <v>74543158</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,39 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>697930.1509788138</v>
+        <v>697755.9249891196</v>
       </c>
       <c r="R2" t="n">
-        <v>7094246.846446398</v>
+        <v>7093817.101766688</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -797,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74543269</v>
+        <v>74543270</v>
       </c>
       <c r="B3" t="n">
         <v>56411</v>
@@ -833,7 +828,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -842,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>697835.8462762419</v>
+        <v>697930.1509788138</v>
       </c>
       <c r="R3" t="n">
-        <v>7094075.864814039</v>
+        <v>7094246.846446398</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -914,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74543180</v>
+        <v>74543269</v>
       </c>
       <c r="B4" t="n">
-        <v>89832</v>
+        <v>56411</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,38 +921,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>697781.9198475594</v>
+        <v>697835.8462762419</v>
       </c>
       <c r="R4" t="n">
-        <v>7093922.878053115</v>
+        <v>7094075.864814039</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104166234</v>
+        <v>74543179</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,41 +1038,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kavelbroåsen, Balsjö, Bjurholm, Ång</t>
+          <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>697810.9829933582</v>
+        <v>697747.0457652819</v>
       </c>
       <c r="R5" t="n">
-        <v>7094077.819310786</v>
+        <v>7093810.803446135</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1122,45 +1122,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Anna Hallmén</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104166233</v>
+        <v>74543180</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>89832</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,41 +1150,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kavelbroåsen, Balsjö, Bjurholm, Ång</t>
+          <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>697804.9341971396</v>
+        <v>697781.9198475594</v>
       </c>
       <c r="R6" t="n">
-        <v>7094075.671339186</v>
+        <v>7093922.878053115</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1227,7 +1208,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1237,7 +1218,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1253,45 +1234,26 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Anna Hallmén</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74543158</v>
+        <v>74543267</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>56411</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1304,34 +1266,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Kavelbroåsen, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>697755.9249891196</v>
+        <v>697742.8174326988</v>
       </c>
       <c r="R7" t="n">
-        <v>7093817.101766688</v>
+        <v>7093800.82848464</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1400,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74543179</v>
+        <v>104166234</v>
       </c>
       <c r="B8" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1412,41 +1379,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kavelbroåsen, Ång</t>
+          <t>Kavelbroåsen, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>697747.0457652819</v>
+        <v>697810.9829933582</v>
       </c>
       <c r="R8" t="n">
-        <v>7093810.803446135</v>
+        <v>7094077.819310786</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1470,7 +1437,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1480,7 +1447,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1496,26 +1463,45 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74543267</v>
+        <v>104166233</v>
       </c>
       <c r="B9" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1528,42 +1514,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kavelbroåsen, Ång</t>
+          <t>Kavelbroåsen, Balsjö, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>697742.8174326988</v>
+        <v>697804.9341971396</v>
       </c>
       <c r="R9" t="n">
-        <v>7093800.82848464</v>
+        <v>7094075.671339186</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1587,7 +1568,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1597,7 +1578,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1613,19 +1594,38 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
